--- a/molgenis-model-registry/src/test/resources/MIABIS-MODEL.xlsx
+++ b/molgenis-model-registry/src/test/resources/MIABIS-MODEL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="14120" tabRatio="951" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="14120" tabRatio="951" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="25" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="age_types" sheetId="19" r:id="rId10"/>
     <sheet name="topic_types" sheetId="20" r:id="rId11"/>
     <sheet name="disease_types" sheetId="24" r:id="rId12"/>
+    <sheet name="tags" sheetId="26" r:id="rId13"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="569">
   <si>
     <t>description</t>
   </si>
@@ -1766,6 +1767,39 @@
   </si>
   <si>
     <t>package</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>miabis_spec</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>objectIRI</t>
+  </si>
+  <si>
+    <t>relationLabel</t>
+  </si>
+  <si>
+    <t>codeSystem</t>
+  </si>
+  <si>
+    <t>relationIRI</t>
+  </si>
+  <si>
+    <t>Specification</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>http://molgenis.org/biobankconnect/link</t>
+  </si>
+  <si>
+    <t>http://bbmri-wiki.wikidot.com/en:dataset</t>
   </si>
 </sst>
 </file>
@@ -1848,7 +1882,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="397">
+  <cellStyleXfs count="403">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1947,6 +1981,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2254,7 +2294,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="397">
+  <cellStyles count="403">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2469,6 +2509,9 @@
     <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2651,6 +2694,9 @@
     <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2980,28 +3026,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>555</v>
       </c>
       <c r="B2" t="s">
         <v>556</v>
+      </c>
+      <c r="C2" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -4461,6 +4517,72 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="46.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4682,7 +4804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G92" sqref="G92"/>
     </sheetView>

--- a/molgenis-model-registry/src/test/resources/MIABIS-MODEL.xlsx
+++ b/molgenis-model-registry/src/test/resources/MIABIS-MODEL.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="14120" tabRatio="951" activeTab="12"/>
+    <workbookView xWindow="1940" yWindow="1380" windowWidth="32000" windowHeight="14120" tabRatio="951" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="25" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="572">
   <si>
     <t>description</t>
   </si>
@@ -1800,6 +1800,15 @@
   </si>
   <si>
     <t>http://bbmri-wiki.wikidot.com/en:dataset</t>
+  </si>
+  <si>
+    <t>miabis_biosharing</t>
+  </si>
+  <si>
+    <t>http://www.biosharing.org/bsg-000553</t>
+  </si>
+  <si>
+    <t>miabis_spec,miabis_biosharing</t>
   </si>
 </sst>
 </file>
@@ -1882,7 +1891,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="403">
+  <cellStyleXfs count="407">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1981,6 +1990,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2294,7 +2307,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="403">
+  <cellStyles count="407">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2512,6 +2525,8 @@
     <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2697,6 +2712,8 @@
     <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3029,7 +3046,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3057,7 +3074,7 @@
         <v>556</v>
       </c>
       <c r="C2" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -4527,16 +4544,17 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4577,6 +4595,26 @@
         <v>566</v>
       </c>
       <c r="F2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F3" t="s">
         <v>567</v>
       </c>
     </row>

--- a/molgenis-model-registry/src/test/resources/MIABIS-MODEL.xlsx
+++ b/molgenis-model-registry/src/test/resources/MIABIS-MODEL.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="1380" windowWidth="32000" windowHeight="14120" tabRatio="951" activeTab="12"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="32400" windowHeight="20500" tabRatio="951" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="25" r:id="rId1"/>
     <sheet name="entities" sheetId="1" r:id="rId2"/>
     <sheet name="attributes" sheetId="3" r:id="rId3"/>
-    <sheet name="countries" sheetId="6" r:id="rId4"/>
-    <sheet name="omics_data_types" sheetId="12" r:id="rId5"/>
-    <sheet name="material_types" sheetId="10" r:id="rId6"/>
-    <sheet name="data_category_types" sheetId="13" r:id="rId7"/>
-    <sheet name="collection_types" sheetId="15" r:id="rId8"/>
-    <sheet name="gender_types" sheetId="14" r:id="rId9"/>
-    <sheet name="age_types" sheetId="19" r:id="rId10"/>
-    <sheet name="topic_types" sheetId="20" r:id="rId11"/>
-    <sheet name="disease_types" sheetId="24" r:id="rId12"/>
+    <sheet name="miabis_countries" sheetId="6" r:id="rId4"/>
+    <sheet name="miabis_omics_data_types" sheetId="12" r:id="rId5"/>
+    <sheet name="miabis_material_types" sheetId="10" r:id="rId6"/>
+    <sheet name="miabis_data_category_types" sheetId="13" r:id="rId7"/>
+    <sheet name="miabis_collection_types" sheetId="15" r:id="rId8"/>
+    <sheet name="miabis_gender_types" sheetId="14" r:id="rId9"/>
+    <sheet name="miabis_age_types" sheetId="19" r:id="rId10"/>
+    <sheet name="miabis_topic_types" sheetId="20" r:id="rId11"/>
+    <sheet name="miabis_disease_types" sheetId="24" r:id="rId12"/>
     <sheet name="tags" sheetId="26" r:id="rId13"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="586">
   <si>
     <t>description</t>
   </si>
@@ -1809,6 +1809,48 @@
   </si>
   <si>
     <t>miabis_spec,miabis_biosharing</t>
+  </si>
+  <si>
+    <t>miabis_collection_types</t>
+  </si>
+  <si>
+    <t>miabis_data_category_types</t>
+  </si>
+  <si>
+    <t>miabis_omics_data_types</t>
+  </si>
+  <si>
+    <t>miabis_gender_types</t>
+  </si>
+  <si>
+    <t>miabis_topic_types</t>
+  </si>
+  <si>
+    <t>miabis_age_types</t>
+  </si>
+  <si>
+    <t>miabis_material_types</t>
+  </si>
+  <si>
+    <t>miabis_disease_types</t>
+  </si>
+  <si>
+    <t>miabis_publications</t>
+  </si>
+  <si>
+    <t>miabis_countries</t>
+  </si>
+  <si>
+    <t>miabis_juristic_persons</t>
+  </si>
+  <si>
+    <t>miabis_persons</t>
+  </si>
+  <si>
+    <t>miabis_biobanks</t>
+  </si>
+  <si>
+    <t>miabis_sample_collections</t>
   </si>
 </sst>
 </file>
@@ -4546,7 +4588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4842,9 +4884,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4884,7 +4926,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>572</v>
       </c>
       <c r="B2" t="s">
         <v>126</v>
@@ -4898,7 +4940,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>572</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -4915,7 +4957,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>572</v>
       </c>
       <c r="B4" t="s">
         <v>111</v>
@@ -4929,7 +4971,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>572</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -4943,7 +4985,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>573</v>
       </c>
       <c r="B6" t="s">
         <v>126</v>
@@ -4957,7 +4999,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>573</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -4974,7 +5016,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>573</v>
       </c>
       <c r="B8" t="s">
         <v>111</v>
@@ -4988,7 +5030,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>573</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -5002,7 +5044,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>574</v>
       </c>
       <c r="B10" t="s">
         <v>126</v>
@@ -5016,7 +5058,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>574</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -5033,7 +5075,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>574</v>
       </c>
       <c r="B12" t="s">
         <v>111</v>
@@ -5047,7 +5089,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>574</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -5061,7 +5103,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>575</v>
       </c>
       <c r="B14" t="s">
         <v>126</v>
@@ -5075,7 +5117,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>575</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -5092,7 +5134,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>575</v>
       </c>
       <c r="B16" t="s">
         <v>111</v>
@@ -5106,7 +5148,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>575</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -5120,7 +5162,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>230</v>
+        <v>576</v>
       </c>
       <c r="B18" t="s">
         <v>126</v>
@@ -5134,7 +5176,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>230</v>
+        <v>576</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -5151,7 +5193,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>576</v>
       </c>
       <c r="B20" t="s">
         <v>111</v>
@@ -5165,7 +5207,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>576</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -5179,7 +5221,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>213</v>
+        <v>577</v>
       </c>
       <c r="B22" t="s">
         <v>126</v>
@@ -5193,7 +5235,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>213</v>
+        <v>577</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -5210,7 +5252,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>213</v>
+        <v>577</v>
       </c>
       <c r="B24" t="s">
         <v>111</v>
@@ -5224,7 +5266,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>213</v>
+        <v>577</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
@@ -5238,7 +5280,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>578</v>
       </c>
       <c r="B26" t="s">
         <v>126</v>
@@ -5252,7 +5294,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>578</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -5269,7 +5311,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>578</v>
       </c>
       <c r="B28" t="s">
         <v>111</v>
@@ -5283,7 +5325,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>578</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -5297,7 +5339,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
       <c r="B30" t="s">
         <v>126</v>
@@ -5311,7 +5353,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -5328,7 +5370,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
       <c r="B32" t="s">
         <v>111</v>
@@ -5342,7 +5384,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
@@ -5356,7 +5398,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
       <c r="B34" t="s">
         <v>79</v>
@@ -5373,7 +5415,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>572</v>
       </c>
       <c r="B35" t="s">
         <v>79</v>
@@ -5390,7 +5432,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>573</v>
       </c>
       <c r="B36" t="s">
         <v>79</v>
@@ -5407,7 +5449,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>578</v>
       </c>
       <c r="B37" t="s">
         <v>79</v>
@@ -5424,7 +5466,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>574</v>
       </c>
       <c r="B38" t="s">
         <v>79</v>
@@ -5441,7 +5483,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>575</v>
       </c>
       <c r="B39" t="s">
         <v>79</v>
@@ -5458,7 +5500,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>230</v>
+        <v>576</v>
       </c>
       <c r="B40" t="s">
         <v>79</v>
@@ -5475,7 +5517,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>213</v>
+        <v>577</v>
       </c>
       <c r="B41" t="s">
         <v>79</v>
@@ -5492,7 +5534,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>580</v>
       </c>
       <c r="B42" t="s">
         <v>79</v>
@@ -5509,7 +5551,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>580</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
@@ -5526,7 +5568,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>580</v>
       </c>
       <c r="B44" t="s">
         <v>74</v>
@@ -5543,7 +5585,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>581</v>
       </c>
       <c r="B45" t="s">
         <v>79</v>
@@ -5563,7 +5605,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>581</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -5580,7 +5622,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>180</v>
+        <v>582</v>
       </c>
       <c r="B47" t="s">
         <v>79</v>
@@ -5597,7 +5639,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>582</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -5614,7 +5656,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>180</v>
+        <v>582</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
@@ -5631,7 +5673,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>582</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
@@ -5648,7 +5690,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>180</v>
+        <v>582</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
@@ -5668,7 +5710,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>582</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -5677,7 +5719,7 @@
         <v>107</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>581</v>
       </c>
       <c r="E52" t="b">
         <v>1</v>
@@ -5685,7 +5727,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>113</v>
+        <v>583</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>79</v>
@@ -5702,7 +5744,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>113</v>
+        <v>583</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>146</v>
@@ -5716,7 +5758,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>113</v>
+        <v>583</v>
       </c>
       <c r="B55" t="s">
         <v>147</v>
@@ -5733,7 +5775,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>113</v>
+        <v>583</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -5750,7 +5792,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>113</v>
+        <v>583</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
@@ -5767,7 +5809,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>113</v>
+        <v>583</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
@@ -5784,7 +5826,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>113</v>
+        <v>583</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
@@ -5801,7 +5843,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>113</v>
+        <v>583</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
@@ -5821,7 +5863,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>113</v>
+        <v>583</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -5830,7 +5872,7 @@
         <v>107</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>581</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
@@ -5838,7 +5880,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>113</v>
+        <v>583</v>
       </c>
       <c r="B62" t="s">
         <v>12</v>
@@ -5855,7 +5897,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>113</v>
+        <v>583</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
@@ -5864,7 +5906,7 @@
         <v>40</v>
       </c>
       <c r="D63" t="s">
-        <v>180</v>
+        <v>582</v>
       </c>
       <c r="E63" t="b">
         <v>1</v>
@@ -5872,7 +5914,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>113</v>
+        <v>583</v>
       </c>
       <c r="B64" t="s">
         <v>148</v>
@@ -5886,7 +5928,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>584</v>
       </c>
       <c r="B65" t="s">
         <v>79</v>
@@ -5906,7 +5948,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>584</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
@@ -5923,7 +5965,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>584</v>
       </c>
       <c r="B67" t="s">
         <v>196</v>
@@ -5940,7 +5982,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>584</v>
       </c>
       <c r="B68" t="s">
         <v>0</v>
@@ -5957,7 +5999,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>584</v>
       </c>
       <c r="B69" t="s">
         <v>2</v>
@@ -5974,7 +6016,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>5</v>
+        <v>584</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
@@ -5983,7 +6025,7 @@
         <v>40</v>
       </c>
       <c r="D70" t="s">
-        <v>180</v>
+        <v>582</v>
       </c>
       <c r="E70" t="b">
         <v>1</v>
@@ -5994,7 +6036,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>584</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -6003,7 +6045,7 @@
         <v>107</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>581</v>
       </c>
       <c r="E71" t="b">
         <v>1</v>
@@ -6014,7 +6056,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>584</v>
       </c>
       <c r="B72" t="s">
         <v>9</v>
@@ -6023,7 +6065,7 @@
         <v>40</v>
       </c>
       <c r="D72" t="s">
-        <v>113</v>
+        <v>583</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
@@ -6034,7 +6076,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>584</v>
       </c>
       <c r="B73" t="s">
         <v>149</v>
@@ -6043,7 +6085,7 @@
         <v>40</v>
       </c>
       <c r="D73" t="s">
-        <v>113</v>
+        <v>583</v>
       </c>
       <c r="E73" t="b">
         <v>1</v>
@@ -6054,7 +6096,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>112</v>
+        <v>585</v>
       </c>
       <c r="B74" t="s">
         <v>79</v>
@@ -6074,7 +6116,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>585</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -6083,7 +6125,7 @@
         <v>40</v>
       </c>
       <c r="D75" t="s">
-        <v>5</v>
+        <v>584</v>
       </c>
       <c r="E75" t="b">
         <v>1</v>
@@ -6095,7 +6137,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>112</v>
+        <v>585</v>
       </c>
       <c r="B76" t="s">
         <v>1</v>
@@ -6115,7 +6157,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>112</v>
+        <v>585</v>
       </c>
       <c r="B77" t="s">
         <v>196</v>
@@ -6132,7 +6174,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>585</v>
       </c>
       <c r="B78" t="s">
         <v>0</v>
@@ -6149,7 +6191,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>112</v>
+        <v>585</v>
       </c>
       <c r="B79" t="s">
         <v>33</v>
@@ -6166,7 +6208,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>585</v>
       </c>
       <c r="B80" t="s">
         <v>9</v>
@@ -6175,7 +6217,7 @@
         <v>40</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>583</v>
       </c>
       <c r="E80" t="b">
         <v>1</v>
@@ -6187,7 +6229,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>585</v>
       </c>
       <c r="B81" t="s">
         <v>149</v>
@@ -6196,7 +6238,7 @@
         <v>40</v>
       </c>
       <c r="D81" t="s">
-        <v>113</v>
+        <v>583</v>
       </c>
       <c r="E81" t="b">
         <v>1</v>
@@ -6205,7 +6247,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>585</v>
       </c>
       <c r="B82" t="s">
         <v>39</v>
@@ -6214,7 +6256,7 @@
         <v>40</v>
       </c>
       <c r="D82" t="s">
-        <v>114</v>
+        <v>572</v>
       </c>
       <c r="E82" t="b">
         <v>1</v>
@@ -6223,7 +6265,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>585</v>
       </c>
       <c r="B83" t="s">
         <v>150</v>
@@ -6232,7 +6274,7 @@
         <v>40</v>
       </c>
       <c r="D83" t="s">
-        <v>151</v>
+        <v>573</v>
       </c>
       <c r="E83" t="b">
         <v>1</v>
@@ -6241,7 +6283,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>112</v>
+        <v>585</v>
       </c>
       <c r="B84" t="s">
         <v>110</v>
@@ -6250,7 +6292,7 @@
         <v>40</v>
       </c>
       <c r="D84" t="s">
-        <v>108</v>
+        <v>578</v>
       </c>
       <c r="E84" t="b">
         <v>1</v>
@@ -6262,7 +6304,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>112</v>
+        <v>585</v>
       </c>
       <c r="B85" t="s">
         <v>77</v>
@@ -6271,7 +6313,7 @@
         <v>40</v>
       </c>
       <c r="D85" t="s">
-        <v>174</v>
+        <v>574</v>
       </c>
       <c r="E85" t="b">
         <v>1</v>
@@ -6280,7 +6322,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>112</v>
+        <v>585</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
@@ -6289,7 +6331,7 @@
         <v>40</v>
       </c>
       <c r="D86" t="s">
-        <v>145</v>
+        <v>575</v>
       </c>
       <c r="E86" t="b">
         <v>1</v>
@@ -6301,7 +6343,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>112</v>
+        <v>585</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
@@ -6318,7 +6360,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>112</v>
+        <v>585</v>
       </c>
       <c r="B88" t="s">
         <v>17</v>
@@ -6335,7 +6377,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>112</v>
+        <v>585</v>
       </c>
       <c r="B89" t="s">
         <v>27</v>
@@ -6344,7 +6386,7 @@
         <v>107</v>
       </c>
       <c r="D89" t="s">
-        <v>213</v>
+        <v>577</v>
       </c>
       <c r="E89" t="b">
         <v>1</v>
@@ -6356,7 +6398,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>112</v>
+        <v>585</v>
       </c>
       <c r="B90" t="s">
         <v>42</v>
@@ -6373,7 +6415,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>585</v>
       </c>
       <c r="B91" t="s">
         <v>231</v>
@@ -6382,7 +6424,7 @@
         <v>40</v>
       </c>
       <c r="D91" t="s">
-        <v>230</v>
+        <v>576</v>
       </c>
       <c r="E91" t="b">
         <v>1</v>
@@ -6391,7 +6433,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>112</v>
+        <v>585</v>
       </c>
       <c r="B92" t="s">
         <v>553</v>
@@ -6400,7 +6442,7 @@
         <v>40</v>
       </c>
       <c r="D92" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
       <c r="E92" t="b">
         <v>1</v>
